--- a/experiment/Ejecucion.xlsx
+++ b/experiment/Ejecucion.xlsx
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="139">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -313,16 +313,19 @@
     <xf borderId="7" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="2" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -336,18 +339,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -376,20 +367,20 @@
     <xf borderId="9" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -403,34 +394,13 @@
     <xf borderId="0" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="12" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="14" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="13" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="13" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -451,35 +421,32 @@
     <xf borderId="9" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="4" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="10" fillId="4" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="10" fillId="4" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -508,6 +475,9 @@
     <xf borderId="11" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="10" fillId="5" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -519,21 +489,6 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="5" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -1120,31 +1075,31 @@
       <c r="K4" s="15">
         <v>0.2075</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="13">
         <v>4239.0</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="14">
         <v>0.3521</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="15">
         <v>0.309</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="13">
         <v>3597.0</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="14">
         <v>0.3521</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="15">
         <v>0.309</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="17">
         <v>3055.0</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="14">
         <v>0.3521</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="15">
         <v>0.309</v>
       </c>
       <c r="U4" s="8"/>
@@ -1154,58 +1109,58 @@
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>14913.0</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <v>0.2172</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>0.2075</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>14587.0</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="19">
         <v>0.2172</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="20">
         <v>0.2075</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <v>14652.0</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="19">
         <v>0.2172</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <v>0.2075</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="18">
         <v>3845.0</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="19">
         <v>0.3521</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="20">
         <v>0.309</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="18">
         <v>4017.0</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="19">
         <v>0.3521</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="20">
         <v>0.309</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="21">
         <v>3574.0</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="19">
         <v>0.3521</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="20">
         <v>0.309</v>
       </c>
       <c r="U5" s="8"/>
@@ -1215,24 +1170,60 @@
       <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="27"/>
+      <c r="C6" s="22">
+        <v>16965.0</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.2172</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.2075</v>
+      </c>
+      <c r="F6" s="22">
+        <v>14063.0</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.2172</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.2075</v>
+      </c>
+      <c r="I6" s="22">
+        <v>15534.0</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.2172</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0.2075</v>
+      </c>
+      <c r="L6" s="22">
+        <v>2827.0</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0.3521</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0.309</v>
+      </c>
+      <c r="O6" s="22">
+        <v>2871.0</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0.3521</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>0.309</v>
+      </c>
+      <c r="R6" s="25">
+        <v>2956.0</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0.3521</v>
+      </c>
+      <c r="T6" s="24">
+        <v>0.309</v>
+      </c>
       <c r="U6" s="8"/>
     </row>
     <row r="7">
@@ -1240,688 +1231,796 @@
       <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="26">
         <v>15917.0</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <v>0.2172</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="28">
         <v>0.2075</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="26">
         <v>15857.0</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <v>0.2172</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="28">
         <v>0.2075</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="26">
         <v>15893.0</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="27">
         <v>0.2172</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="28">
         <v>0.2075</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="26">
         <v>2595.0</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="27">
         <v>0.3521</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="28">
         <v>0.309</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="26">
         <v>2509.0</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="27">
         <v>0.3521</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="28">
         <v>0.309</v>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="29">
         <v>2650.0</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="27">
         <v>0.3521</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="28">
         <v>0.309</v>
       </c>
       <c r="U7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="32">
         <v>18566.0</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="33">
         <v>0.2049</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="34">
         <v>0.2038</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="32">
         <v>18488.0</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="33">
         <v>0.2049</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="34">
         <v>0.2038</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="32">
         <v>18397.0</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="33">
         <v>0.2049</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="34">
         <v>0.2038</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="32">
         <v>4603.0</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="33">
         <v>0.352</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="34">
         <v>0.3257</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="32">
         <v>3962.0</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="33">
         <v>0.352</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="34">
         <v>0.3257</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="35">
         <v>3747.0</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="33">
         <v>0.352</v>
       </c>
-      <c r="T8" s="40">
+      <c r="T8" s="34">
         <v>0.3257</v>
       </c>
       <c r="U8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="7"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="36">
         <v>18758.0</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="37">
         <v>0.2049</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="38">
         <v>0.2038</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="36">
         <v>19025.0</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="37">
         <v>0.2049</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="38">
         <v>0.2038</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="36">
         <v>19002.0</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="37">
         <v>0.2049</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="38">
         <v>0.2038</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="36">
         <v>3875.0</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="37">
         <v>0.352</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="38">
         <v>0.3257</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="36">
         <v>4016.0</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="37">
         <v>0.352</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="38">
         <v>0.3257</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="39">
         <v>3579.0</v>
       </c>
-      <c r="S9" s="44">
+      <c r="S9" s="37">
         <v>0.352</v>
       </c>
-      <c r="T9" s="45">
+      <c r="T9" s="38">
         <v>0.3257</v>
       </c>
       <c r="U9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="49"/>
+      <c r="C10" s="40">
+        <v>21480.0</v>
+      </c>
+      <c r="D10" s="41">
+        <v>0.2094</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.2038</v>
+      </c>
+      <c r="F10" s="40">
+        <v>23794.0</v>
+      </c>
+      <c r="G10" s="41">
+        <v>0.2094</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0.2038</v>
+      </c>
+      <c r="I10" s="40">
+        <v>21534.0</v>
+      </c>
+      <c r="J10" s="41">
+        <v>0.2094</v>
+      </c>
+      <c r="K10" s="42">
+        <v>0.2038</v>
+      </c>
+      <c r="L10" s="40">
+        <v>3446.0</v>
+      </c>
+      <c r="M10" s="41">
+        <v>0.352</v>
+      </c>
+      <c r="N10" s="42">
+        <v>0.3257</v>
+      </c>
+      <c r="O10" s="40">
+        <v>3056.0</v>
+      </c>
+      <c r="P10" s="41">
+        <v>0.352</v>
+      </c>
+      <c r="Q10" s="42">
+        <v>0.3257</v>
+      </c>
+      <c r="R10" s="43">
+        <v>3192.0</v>
+      </c>
+      <c r="S10" s="41">
+        <v>0.352</v>
+      </c>
+      <c r="T10" s="42">
+        <v>0.3257</v>
+      </c>
       <c r="U10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="9"/>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="36">
         <v>19158.0</v>
       </c>
-      <c r="D11" s="52">
-        <v>0.2049</v>
-      </c>
-      <c r="E11" s="53">
+      <c r="D11" s="41">
+        <v>0.2094</v>
+      </c>
+      <c r="E11" s="38">
         <v>0.2038</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="44">
         <v>18895.0</v>
       </c>
-      <c r="G11" s="55">
-        <v>0.2049</v>
-      </c>
-      <c r="H11" s="56">
+      <c r="G11" s="41">
+        <v>0.2094</v>
+      </c>
+      <c r="H11" s="45">
         <v>0.2038</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="44">
         <v>18919.0</v>
       </c>
-      <c r="J11" s="55">
-        <v>0.2049</v>
-      </c>
-      <c r="K11" s="56">
+      <c r="J11" s="41">
+        <v>0.2094</v>
+      </c>
+      <c r="K11" s="45">
         <v>0.2038</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="44">
         <v>2874.0</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="46">
         <v>0.352</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="45">
         <v>0.3257</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="44">
         <v>3045.0</v>
       </c>
-      <c r="P11" s="55">
+      <c r="P11" s="46">
         <v>0.352</v>
       </c>
-      <c r="Q11" s="56">
+      <c r="Q11" s="45">
         <v>0.3257</v>
       </c>
-      <c r="R11" s="57">
+      <c r="R11" s="47">
         <v>2818.0</v>
       </c>
-      <c r="S11" s="55">
+      <c r="S11" s="46">
         <v>0.352</v>
       </c>
-      <c r="T11" s="56">
+      <c r="T11" s="45">
         <v>0.3257</v>
       </c>
       <c r="U11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="50">
         <v>25961.0</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="51">
         <v>0.2125</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="52">
         <v>0.2126</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="50">
         <v>25809.0</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="51">
         <v>0.2125</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="52">
         <v>0.2126</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="50">
         <v>25942.0</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="51">
         <v>0.2125</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="52">
         <v>0.2126</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="53">
         <v>5966.0</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="54">
         <v>0.3464</v>
       </c>
-      <c r="N12" s="65">
+      <c r="N12" s="55">
         <v>0.3269</v>
       </c>
-      <c r="O12" s="63">
+      <c r="O12" s="53">
         <v>4043.0</v>
       </c>
-      <c r="P12" s="64">
+      <c r="P12" s="54">
         <v>0.3464</v>
       </c>
-      <c r="Q12" s="65">
+      <c r="Q12" s="55">
         <v>0.3269</v>
       </c>
-      <c r="R12" s="66">
+      <c r="R12" s="56">
         <v>4378.0</v>
       </c>
-      <c r="S12" s="64">
+      <c r="S12" s="54">
         <v>0.3464</v>
       </c>
-      <c r="T12" s="65">
+      <c r="T12" s="55">
         <v>0.3269</v>
       </c>
       <c r="U12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="58">
         <v>26568.0</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="54">
         <v>0.2125</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="59">
         <v>0.2126</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="58">
         <v>26372.0</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="60">
         <v>0.2125</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="59">
         <v>0.2126</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="58">
         <v>26842.0</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="60">
         <v>0.2125</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="59">
         <v>0.2126</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="58">
         <v>4765.0</v>
       </c>
-      <c r="M13" s="64">
+      <c r="M13" s="60">
         <v>0.3464</v>
       </c>
-      <c r="N13" s="65">
+      <c r="N13" s="59">
         <v>0.3269</v>
       </c>
-      <c r="O13" s="63">
+      <c r="O13" s="58">
         <v>3865.0</v>
       </c>
-      <c r="P13" s="64">
+      <c r="P13" s="60">
         <v>0.3464</v>
       </c>
-      <c r="Q13" s="65">
+      <c r="Q13" s="59">
         <v>0.3269</v>
       </c>
-      <c r="R13" s="66">
+      <c r="R13" s="61">
         <v>3845.0</v>
       </c>
-      <c r="S13" s="64">
+      <c r="S13" s="60">
         <v>0.3464</v>
       </c>
-      <c r="T13" s="65">
+      <c r="T13" s="59">
         <v>0.3269</v>
       </c>
       <c r="U13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="7"/>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="71"/>
+      <c r="C14" s="58">
+        <v>30887.0</v>
+      </c>
+      <c r="D14" s="60">
+        <v>0.2125</v>
+      </c>
+      <c r="E14" s="59">
+        <v>0.2126</v>
+      </c>
+      <c r="F14" s="58">
+        <v>31330.0</v>
+      </c>
+      <c r="G14" s="60">
+        <v>0.2125</v>
+      </c>
+      <c r="H14" s="59">
+        <v>0.2126</v>
+      </c>
+      <c r="I14" s="58">
+        <v>30803.0</v>
+      </c>
+      <c r="J14" s="60">
+        <v>0.2125</v>
+      </c>
+      <c r="K14" s="59">
+        <v>0.2126</v>
+      </c>
+      <c r="L14" s="58">
+        <v>4334.0</v>
+      </c>
+      <c r="M14" s="60">
+        <v>0.3464</v>
+      </c>
+      <c r="N14" s="59">
+        <v>0.3269</v>
+      </c>
+      <c r="O14" s="58">
+        <v>4042.0</v>
+      </c>
+      <c r="P14" s="60">
+        <v>0.3464</v>
+      </c>
+      <c r="Q14" s="59">
+        <v>0.3269</v>
+      </c>
+      <c r="R14" s="61">
+        <v>3447.0</v>
+      </c>
+      <c r="S14" s="60">
+        <v>0.3464</v>
+      </c>
+      <c r="T14" s="59">
+        <v>0.3269</v>
+      </c>
       <c r="U14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="9"/>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="62">
         <v>26837.0</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="63">
         <v>0.2125</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="64">
         <v>0.2126</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="62">
         <v>26521.0</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="63">
         <v>0.2125</v>
       </c>
-      <c r="H15" s="75">
+      <c r="H15" s="64">
         <v>0.2126</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="62">
         <v>27226.0</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="63">
         <v>0.2125</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="64">
         <v>0.2126</v>
       </c>
-      <c r="L15" s="73">
+      <c r="L15" s="62">
         <v>3024.0</v>
       </c>
-      <c r="M15" s="74">
+      <c r="M15" s="63">
         <v>0.3464</v>
       </c>
-      <c r="N15" s="75">
+      <c r="N15" s="64">
         <v>0.3269</v>
       </c>
-      <c r="O15" s="73">
+      <c r="O15" s="62">
         <v>3302.0</v>
       </c>
-      <c r="P15" s="74">
+      <c r="P15" s="63">
         <v>0.3464</v>
       </c>
-      <c r="Q15" s="75">
+      <c r="Q15" s="64">
         <v>0.3269</v>
       </c>
-      <c r="R15" s="76">
+      <c r="R15" s="65">
         <v>3204.0</v>
       </c>
-      <c r="S15" s="74">
+      <c r="S15" s="63">
         <v>0.3464</v>
       </c>
-      <c r="T15" s="75">
+      <c r="T15" s="64">
         <v>0.3269</v>
       </c>
       <c r="U15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="68">
         <v>28888.0</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="69">
         <v>0.2141</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="70">
         <v>0.2137</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="68">
         <v>28812.0</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="69">
         <v>0.2141</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="70">
         <v>0.2137</v>
       </c>
-      <c r="I16" s="82">
+      <c r="I16" s="68">
         <v>28809.0</v>
       </c>
-      <c r="J16" s="80">
+      <c r="J16" s="69">
         <v>0.2141</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="70">
         <v>0.2137</v>
       </c>
-      <c r="L16" s="82">
+      <c r="L16" s="68">
         <v>7135.0</v>
       </c>
-      <c r="M16" s="83">
+      <c r="M16" s="69">
         <v>0.3407</v>
       </c>
-      <c r="N16" s="84">
+      <c r="N16" s="70">
         <v>0.3216</v>
       </c>
-      <c r="O16" s="82">
+      <c r="O16" s="68">
         <v>4483.0</v>
       </c>
-      <c r="P16" s="83">
+      <c r="P16" s="69">
         <v>0.3407</v>
       </c>
-      <c r="Q16" s="84">
+      <c r="Q16" s="70">
         <v>0.3216</v>
       </c>
-      <c r="R16" s="85">
+      <c r="R16" s="71">
         <v>3563.0</v>
       </c>
-      <c r="S16" s="83">
+      <c r="S16" s="69">
         <v>0.3407</v>
       </c>
-      <c r="T16" s="84">
+      <c r="T16" s="70">
         <v>0.3216</v>
       </c>
       <c r="U16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="7"/>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="72">
         <v>28958.0</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="73">
         <v>0.2141</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="74">
         <v>0.2137</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="72">
         <v>39845.0</v>
       </c>
-      <c r="G17" s="83">
+      <c r="G17" s="73">
         <v>0.2141</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="74">
         <v>0.2137</v>
       </c>
-      <c r="I17" s="82">
+      <c r="I17" s="72">
         <v>30748.0</v>
       </c>
-      <c r="J17" s="83">
+      <c r="J17" s="73">
         <v>0.2141</v>
       </c>
-      <c r="K17" s="84">
+      <c r="K17" s="74">
         <v>0.2137</v>
       </c>
-      <c r="L17" s="82">
+      <c r="L17" s="72">
         <v>5748.0</v>
       </c>
-      <c r="M17" s="83">
+      <c r="M17" s="73">
         <v>0.3407</v>
       </c>
-      <c r="N17" s="84">
+      <c r="N17" s="74">
         <v>0.3216</v>
       </c>
-      <c r="O17" s="82">
+      <c r="O17" s="72">
         <v>5125.0</v>
       </c>
-      <c r="P17" s="83">
+      <c r="P17" s="73">
         <v>0.3407</v>
       </c>
-      <c r="Q17" s="84">
+      <c r="Q17" s="74">
         <v>0.3216</v>
       </c>
-      <c r="R17" s="85">
+      <c r="R17" s="75">
         <v>4854.0</v>
       </c>
-      <c r="S17" s="83">
+      <c r="S17" s="73">
         <v>0.3407</v>
       </c>
-      <c r="T17" s="84">
+      <c r="T17" s="74">
         <v>0.3216</v>
       </c>
       <c r="U17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="7"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="89"/>
+      <c r="C18" s="72">
+        <v>35405.0</v>
+      </c>
+      <c r="D18" s="73">
+        <v>0.2141</v>
+      </c>
+      <c r="E18" s="74">
+        <v>0.2137</v>
+      </c>
+      <c r="F18" s="72">
+        <v>35806.0</v>
+      </c>
+      <c r="G18" s="73">
+        <v>0.2141</v>
+      </c>
+      <c r="H18" s="74">
+        <v>0.2137</v>
+      </c>
+      <c r="I18" s="72">
+        <v>34913.0</v>
+      </c>
+      <c r="J18" s="73">
+        <v>0.2141</v>
+      </c>
+      <c r="K18" s="74">
+        <v>0.2137</v>
+      </c>
+      <c r="L18" s="72">
+        <v>3694.0</v>
+      </c>
+      <c r="M18" s="73">
+        <v>0.3407</v>
+      </c>
+      <c r="N18" s="74">
+        <v>0.3216</v>
+      </c>
+      <c r="O18" s="72">
+        <v>4400.0</v>
+      </c>
+      <c r="P18" s="73">
+        <v>0.3407</v>
+      </c>
+      <c r="Q18" s="74">
+        <v>0.3216</v>
+      </c>
+      <c r="R18" s="75">
+        <v>3793.0</v>
+      </c>
+      <c r="S18" s="73">
+        <v>0.3407</v>
+      </c>
+      <c r="T18" s="74">
+        <v>0.3216</v>
+      </c>
       <c r="U18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="9"/>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="76">
         <v>29829.0</v>
       </c>
-      <c r="D19" s="92">
+      <c r="D19" s="77">
         <v>0.2141</v>
       </c>
-      <c r="E19" s="93">
+      <c r="E19" s="78">
         <v>0.2137</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="76">
         <v>30362.0</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="77">
         <v>0.2141</v>
       </c>
-      <c r="H19" s="93">
+      <c r="H19" s="78">
         <v>0.2137</v>
       </c>
-      <c r="I19" s="91">
+      <c r="I19" s="76">
         <v>29864.0</v>
       </c>
-      <c r="J19" s="92">
+      <c r="J19" s="77">
         <v>0.2141</v>
       </c>
-      <c r="K19" s="93">
+      <c r="K19" s="78">
         <v>0.2137</v>
       </c>
-      <c r="L19" s="91">
+      <c r="L19" s="76">
         <v>3302.0</v>
       </c>
-      <c r="M19" s="92">
+      <c r="M19" s="77">
         <v>0.3407</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="78">
         <v>0.3216</v>
       </c>
-      <c r="O19" s="91">
+      <c r="O19" s="76">
         <v>3204.0</v>
       </c>
-      <c r="P19" s="92">
+      <c r="P19" s="73">
         <v>0.3407</v>
       </c>
-      <c r="Q19" s="93">
+      <c r="Q19" s="74">
         <v>0.3216</v>
       </c>
-      <c r="R19" s="94">
+      <c r="R19" s="79">
         <v>3608.0</v>
       </c>
-      <c r="S19" s="92">
+      <c r="S19" s="77">
         <v>0.3407</v>
       </c>
-      <c r="T19" s="93">
+      <c r="T19" s="78">
         <v>0.3216</v>
       </c>
       <c r="U19" s="8"/>
@@ -1943,7 +2042,7 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="95"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="24">
       <c r="A24" s="7"/>
@@ -1988,27 +2087,27 @@
       <c r="B26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="96">
+      <c r="C26" s="81">
         <f t="shared" ref="C26:E26" si="1">AVERAGE(C4,F4,I4)</f>
         <v>13689.33333</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D26" s="82">
         <f t="shared" si="1"/>
         <v>0.2172</v>
       </c>
-      <c r="E26" s="98">
+      <c r="E26" s="83">
         <f t="shared" si="1"/>
         <v>0.2075</v>
       </c>
-      <c r="F26" s="99">
+      <c r="F26" s="84">
         <f t="shared" ref="F26:H26" si="2">AVERAGE(L4,O4,R4)</f>
         <v>3630.333333</v>
       </c>
-      <c r="G26" s="99">
+      <c r="G26" s="84">
         <f t="shared" si="2"/>
         <v>0.3521</v>
       </c>
-      <c r="H26" s="100">
+      <c r="H26" s="85">
         <f t="shared" si="2"/>
         <v>0.309</v>
       </c>
@@ -2018,27 +2117,27 @@
       <c r="B27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="101">
+      <c r="C27" s="86">
         <f t="shared" ref="C27:E27" si="3">AVERAGE(C5,F5,I5)</f>
         <v>14717.33333</v>
       </c>
-      <c r="D27" s="102">
+      <c r="D27" s="87">
         <f t="shared" si="3"/>
         <v>0.2172</v>
       </c>
-      <c r="E27" s="103">
+      <c r="E27" s="88">
         <f t="shared" si="3"/>
         <v>0.2075</v>
       </c>
-      <c r="F27" s="104">
+      <c r="F27" s="89">
         <f t="shared" ref="F27:H27" si="4">AVERAGE(L5,O5,R5)</f>
         <v>3812</v>
       </c>
-      <c r="G27" s="104">
+      <c r="G27" s="89">
         <f t="shared" si="4"/>
         <v>0.3521</v>
       </c>
-      <c r="H27" s="105">
+      <c r="H27" s="90">
         <f t="shared" si="4"/>
         <v>0.309</v>
       </c>
@@ -2048,29 +2147,29 @@
       <c r="B28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="101" t="str">
+      <c r="C28" s="86">
         <f t="shared" ref="C28:E28" si="5">AVERAGE(C6,F6,I6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="102" t="str">
+        <v>15520.66667</v>
+      </c>
+      <c r="D28" s="87">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="103" t="str">
+        <v>0.2172</v>
+      </c>
+      <c r="E28" s="88">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="104" t="str">
+        <v>0.2075</v>
+      </c>
+      <c r="F28" s="89">
         <f t="shared" ref="F28:H28" si="6">AVERAGE(L6,O6,R6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="104" t="str">
+        <v>2884.666667</v>
+      </c>
+      <c r="G28" s="89">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="105" t="str">
+        <v>0.3521</v>
+      </c>
+      <c r="H28" s="90">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="29">
@@ -2078,393 +2177,393 @@
       <c r="B29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="106">
+      <c r="C29" s="91">
         <f t="shared" ref="C29:E29" si="7">AVERAGE(C7,F7,I7)</f>
         <v>15889</v>
       </c>
-      <c r="D29" s="107">
+      <c r="D29" s="92">
         <f t="shared" si="7"/>
         <v>0.2172</v>
       </c>
-      <c r="E29" s="108">
+      <c r="E29" s="93">
         <f t="shared" si="7"/>
         <v>0.2075</v>
       </c>
-      <c r="F29" s="109">
+      <c r="F29" s="94">
         <f t="shared" ref="F29:H29" si="8">AVERAGE(L7,O7,R7)</f>
         <v>2584.666667</v>
       </c>
-      <c r="G29" s="109">
+      <c r="G29" s="94">
         <f t="shared" si="8"/>
         <v>0.3521</v>
       </c>
-      <c r="H29" s="110">
+      <c r="H29" s="95">
         <f t="shared" si="8"/>
         <v>0.309</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="112">
+      <c r="C30" s="97">
         <f t="shared" ref="C30:E30" si="9">AVERAGE(C8,F8,I8)</f>
         <v>18483.66667</v>
       </c>
-      <c r="D30" s="113">
+      <c r="D30" s="98">
         <f t="shared" si="9"/>
         <v>0.2049</v>
       </c>
-      <c r="E30" s="114">
+      <c r="E30" s="99">
         <f t="shared" si="9"/>
         <v>0.2038</v>
       </c>
-      <c r="F30" s="115">
+      <c r="F30" s="100">
         <f t="shared" ref="F30:H30" si="10">AVERAGE(L8,O8,R8)</f>
         <v>4104</v>
       </c>
-      <c r="G30" s="115">
+      <c r="G30" s="100">
         <f t="shared" si="10"/>
         <v>0.352</v>
       </c>
-      <c r="H30" s="116">
+      <c r="H30" s="101">
         <f t="shared" si="10"/>
         <v>0.3257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="117">
+      <c r="C31" s="102">
         <f t="shared" ref="C31:E31" si="11">AVERAGE(C9,F9,I9)</f>
         <v>18928.33333</v>
       </c>
-      <c r="D31" s="118">
+      <c r="D31" s="103">
         <f t="shared" si="11"/>
         <v>0.2049</v>
       </c>
-      <c r="E31" s="119">
+      <c r="E31" s="104">
         <f t="shared" si="11"/>
         <v>0.2038</v>
       </c>
-      <c r="F31" s="120">
+      <c r="F31" s="105">
         <f t="shared" ref="F31:H31" si="12">AVERAGE(L9,O9,R9)</f>
         <v>3823.333333</v>
       </c>
-      <c r="G31" s="120">
+      <c r="G31" s="105">
         <f t="shared" si="12"/>
         <v>0.352</v>
       </c>
-      <c r="H31" s="121">
+      <c r="H31" s="106">
         <f t="shared" si="12"/>
         <v>0.3257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="117" t="str">
+      <c r="C32" s="102">
         <f t="shared" ref="C32:E32" si="13">AVERAGE(C10,F10,I10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="118" t="str">
+        <v>22269.33333</v>
+      </c>
+      <c r="D32" s="103">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="119" t="str">
+        <v>0.2094</v>
+      </c>
+      <c r="E32" s="104">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="120" t="str">
+        <v>0.2038</v>
+      </c>
+      <c r="F32" s="105">
         <f t="shared" ref="F32:H32" si="14">AVERAGE(L10,O10,R10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="120" t="str">
+        <v>3231.333333</v>
+      </c>
+      <c r="G32" s="105">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="121" t="str">
+        <v>0.352</v>
+      </c>
+      <c r="H32" s="106">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.3257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9"/>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="122">
+      <c r="C33" s="107">
         <f t="shared" ref="C33:E33" si="15">AVERAGE(C11,F11,I11)</f>
         <v>18990.66667</v>
       </c>
-      <c r="D33" s="123">
+      <c r="D33" s="108">
         <f t="shared" si="15"/>
-        <v>0.2049</v>
-      </c>
-      <c r="E33" s="124">
+        <v>0.2094</v>
+      </c>
+      <c r="E33" s="109">
         <f t="shared" si="15"/>
         <v>0.2038</v>
       </c>
-      <c r="F33" s="125">
+      <c r="F33" s="110">
         <f t="shared" ref="F33:H33" si="16">AVERAGE(L11,O11,R11)</f>
         <v>2912.333333</v>
       </c>
-      <c r="G33" s="125">
+      <c r="G33" s="110">
         <f t="shared" si="16"/>
         <v>0.352</v>
       </c>
-      <c r="H33" s="126">
+      <c r="H33" s="111">
         <f t="shared" si="16"/>
         <v>0.3257</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="128">
+      <c r="C34" s="113">
         <f t="shared" ref="C34:E34" si="17">AVERAGE(C12,F12,I12)</f>
         <v>25904</v>
       </c>
-      <c r="D34" s="129">
+      <c r="D34" s="114">
         <f t="shared" si="17"/>
         <v>0.2125</v>
       </c>
-      <c r="E34" s="130">
+      <c r="E34" s="115">
         <f t="shared" si="17"/>
         <v>0.2126</v>
       </c>
-      <c r="F34" s="131">
+      <c r="F34" s="116">
         <f t="shared" ref="F34:H34" si="18">AVERAGE(L12,O12,R12)</f>
         <v>4795.666667</v>
       </c>
-      <c r="G34" s="131">
+      <c r="G34" s="116">
         <f t="shared" si="18"/>
         <v>0.3464</v>
       </c>
-      <c r="H34" s="132">
+      <c r="H34" s="117">
         <f t="shared" si="18"/>
         <v>0.3269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7"/>
-      <c r="B35" s="127" t="s">
+      <c r="B35" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="133">
+      <c r="C35" s="118">
         <f t="shared" ref="C35:E35" si="19">AVERAGE(C13,F13,I13)</f>
         <v>26594</v>
       </c>
-      <c r="D35" s="134">
+      <c r="D35" s="119">
         <f t="shared" si="19"/>
         <v>0.2125</v>
       </c>
-      <c r="E35" s="135">
+      <c r="E35" s="120">
         <f t="shared" si="19"/>
         <v>0.2126</v>
       </c>
-      <c r="F35" s="136">
+      <c r="F35" s="121">
         <f t="shared" ref="F35:H35" si="20">AVERAGE(L13,O13,R13)</f>
         <v>4158.333333</v>
       </c>
-      <c r="G35" s="136">
+      <c r="G35" s="121">
         <f t="shared" si="20"/>
         <v>0.3464</v>
       </c>
-      <c r="H35" s="137">
+      <c r="H35" s="122">
         <f t="shared" si="20"/>
         <v>0.3269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7"/>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="133" t="str">
+      <c r="C36" s="118">
         <f t="shared" ref="C36:E36" si="21">AVERAGE(C14,F14,I14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="134" t="str">
+        <v>31006.66667</v>
+      </c>
+      <c r="D36" s="119">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="135" t="str">
+        <v>0.2125</v>
+      </c>
+      <c r="E36" s="120">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="136" t="str">
+        <v>0.2126</v>
+      </c>
+      <c r="F36" s="121">
         <f t="shared" ref="F36:H36" si="22">AVERAGE(L14,O14,R14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="136" t="str">
+        <v>3941</v>
+      </c>
+      <c r="G36" s="121">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="137" t="str">
+        <v>0.3464</v>
+      </c>
+      <c r="H36" s="122">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.3269</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9"/>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="138">
+      <c r="C37" s="123">
         <f t="shared" ref="C37:E37" si="23">AVERAGE(C15,F15,I15)</f>
         <v>26861.33333</v>
       </c>
-      <c r="D37" s="139">
+      <c r="D37" s="124">
         <f t="shared" si="23"/>
         <v>0.2125</v>
       </c>
-      <c r="E37" s="140">
+      <c r="E37" s="125">
         <f t="shared" si="23"/>
         <v>0.2126</v>
       </c>
-      <c r="F37" s="141">
+      <c r="F37" s="126">
         <f t="shared" ref="F37:H37" si="24">AVERAGE(L15,O15,R15)</f>
         <v>3176.666667</v>
       </c>
-      <c r="G37" s="141">
+      <c r="G37" s="126">
         <f t="shared" si="24"/>
         <v>0.3464</v>
       </c>
-      <c r="H37" s="142">
+      <c r="H37" s="127">
         <f t="shared" si="24"/>
         <v>0.3269</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="144">
+      <c r="C38" s="129">
         <f t="shared" ref="C38:E38" si="25">AVERAGE(C16,F16,I16)</f>
         <v>28836.33333</v>
       </c>
-      <c r="D38" s="145">
+      <c r="D38" s="130">
         <f t="shared" si="25"/>
         <v>0.2141</v>
       </c>
-      <c r="E38" s="146">
+      <c r="E38" s="131">
         <f t="shared" si="25"/>
         <v>0.2137</v>
       </c>
-      <c r="F38" s="147">
+      <c r="F38" s="132">
         <f t="shared" ref="F38:H38" si="26">AVERAGE(L16,O16,R16)</f>
         <v>5060.333333</v>
       </c>
-      <c r="G38" s="147">
+      <c r="G38" s="132">
         <f t="shared" si="26"/>
         <v>0.3407</v>
       </c>
-      <c r="H38" s="148">
+      <c r="H38" s="133">
         <f t="shared" si="26"/>
         <v>0.3216</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7"/>
-      <c r="B39" s="143" t="s">
+      <c r="B39" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="144">
+      <c r="C39" s="129">
         <f t="shared" ref="C39:E39" si="27">AVERAGE(C17,F17,I17)</f>
         <v>33183.66667</v>
       </c>
-      <c r="D39" s="145">
+      <c r="D39" s="130">
         <f t="shared" si="27"/>
         <v>0.2141</v>
       </c>
-      <c r="E39" s="146">
+      <c r="E39" s="131">
         <f t="shared" si="27"/>
         <v>0.2137</v>
       </c>
-      <c r="F39" s="147">
+      <c r="F39" s="132">
         <f t="shared" ref="F39:H39" si="28">AVERAGE(L17,O17,R17)</f>
         <v>5242.333333</v>
       </c>
-      <c r="G39" s="147">
+      <c r="G39" s="132">
         <f t="shared" si="28"/>
         <v>0.3407</v>
       </c>
-      <c r="H39" s="148">
+      <c r="H39" s="133">
         <f t="shared" si="28"/>
         <v>0.3216</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7"/>
-      <c r="B40" s="143" t="s">
+      <c r="B40" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="144" t="str">
+      <c r="C40" s="129">
         <f t="shared" ref="C40:E40" si="29">AVERAGE(C18,F18,I18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="145" t="str">
+        <v>35374.66667</v>
+      </c>
+      <c r="D40" s="130">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="146" t="str">
+        <v>0.2141</v>
+      </c>
+      <c r="E40" s="131">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="147" t="str">
+        <v>0.2137</v>
+      </c>
+      <c r="F40" s="132">
         <f t="shared" ref="F40:H40" si="30">AVERAGE(L18,O18,R18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="147" t="str">
+        <v>3962.333333</v>
+      </c>
+      <c r="G40" s="132">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="148" t="str">
+        <v>0.3407</v>
+      </c>
+      <c r="H40" s="133">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.3216</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9"/>
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="149">
+      <c r="C41" s="134">
         <f t="shared" ref="C41:E41" si="31">AVERAGE(C19,F19,I19)</f>
         <v>30018.33333</v>
       </c>
-      <c r="D41" s="150">
+      <c r="D41" s="135">
         <f t="shared" si="31"/>
         <v>0.2141</v>
       </c>
-      <c r="E41" s="151">
+      <c r="E41" s="136">
         <f t="shared" si="31"/>
         <v>0.2137</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="137">
         <f t="shared" ref="F41:H41" si="32">AVERAGE(L19,O19,R19)</f>
         <v>3371.333333</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="137">
         <f t="shared" si="32"/>
         <v>0.3407</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="138">
         <f t="shared" si="32"/>
         <v>0.3216</v>
       </c>
